--- a/data/trans_dic/P28A_2_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P28A_2_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -534,7 +535,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido más alcohol respecto al último mes</t>
+          <t>Población que ha consumido más alcohol respecto al último mes (tasa de respuesta: 99,97%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -656,62 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>11,77%</t>
+          <t>10,49%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>14,03%</t>
+          <t>6,63%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>6,32%</t>
+          <t>3,68%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>8,61%</t>
+          <t>3,59%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>3,83%</t>
+          <t>4,18%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>19,05%</t>
+          <t>18,57%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>2,0%</t>
+          <t>2,29%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>13,26%</t>
+          <t>8,27%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>7,79%</t>
+          <t>6,85%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>16,68%</t>
+          <t>13,27%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>4,37%</t>
+          <t>2,94%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>10,55%</t>
+          <t>5,88%</t>
         </is>
       </c>
     </row>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,58; 23,97</t>
+          <t>3,16; 27,48</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,92; 27,14</t>
+          <t>0,0; 20,11</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,63</t>
+          <t>0,0; 16,36</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,81; 19,22</t>
+          <t>0,0; 19,04</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,94</t>
+          <t>0,0; 14,78</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>10,16; 31,89</t>
+          <t>9,23; 32,3</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,38</t>
+          <t>0,0; 11,51</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>5,72; 25,23</t>
+          <t>2,47; 19,25</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,14; 14,57</t>
+          <t>2,47; 15,13</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>9,64; 24,38</t>
+          <t>7,78; 22,6</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,92; 12,27</t>
+          <t>0,0; 10,27</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>5,64; 17,77</t>
+          <t>1,9; 13,13</t>
         </is>
       </c>
     </row>
@@ -796,12 +797,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>11,36%</t>
+          <t>1,84%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>15,3%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -811,47 +812,47 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3,13%</t>
+          <t>3,27%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>18,43%</t>
+          <t>6,9%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>11,68%</t>
+          <t>7,22%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>3,72%</t>
+          <t>1,81%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>2,35%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>15,12%</t>
+          <t>4,34%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>13,63%</t>
+          <t>3,57%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>1,84%</t>
+          <t>0,85%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>2,83%</t>
+          <t>1,8%</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,53; 24,9</t>
+          <t>0,0; 10,03</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,09; 26,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 4,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,71</t>
+          <t>0,0; 12,66</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>10,39; 32,05</t>
+          <t>1,77; 15,86</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,38; 25,13</t>
+          <t>1,89; 16,64</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,65</t>
+          <t>0,0; 7,86</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>9,05; 23,77</t>
+          <t>1,61; 9,42</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>7,06; 21,74</t>
+          <t>0,91; 8,68</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,67</t>
+          <t>0,0; 4,88</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,73; 8,35</t>
+          <t>0,0; 6,91</t>
         </is>
       </c>
     </row>
@@ -936,62 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>25,16%</t>
+          <t>17,57%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>12,36%</t>
+          <t>15,5%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,96%</t>
+          <t>1,47%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,39%</t>
+          <t>1,87%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>12,48%</t>
+          <t>8,0%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>8,02%</t>
+          <t>2,87%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1,16%</t>
+          <t>1,04%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>3,26%</t>
+          <t>2,27%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>18,92%</t>
+          <t>11,77%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>10,55%</t>
+          <t>7,67%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>3,31%</t>
+          <t>1,21%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>2,76%</t>
+          <t>2,11%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>15,89; 35,79</t>
+          <t>9,6; 28,66</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,0; 21,88</t>
+          <t>7,22; 27,74</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,14; 13,0</t>
+          <t>0,0; 10,39</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,59</t>
+          <t>0,0; 8,32</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>7,18; 20,76</t>
+          <t>4,05; 13,95</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,79; 15,27</t>
+          <t>0,85; 7,4</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,34</t>
+          <t>0,0; 5,27</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,2</t>
+          <t>0,0; 7,11</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>13,19; 26,19</t>
+          <t>7,37; 18,16</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>6,54; 16,29</t>
+          <t>4,21; 13,14</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1,1; 7,63</t>
+          <t>0,0; 3,66</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,7; 8,15</t>
+          <t>0,64; 5,91</t>
         </is>
       </c>
     </row>
@@ -1076,37 +1077,37 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>13,82%</t>
+          <t>7,38%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>8,21%</t>
+          <t>6,4%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,8%</t>
+          <t>1,23%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,93%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>9,74%</t>
+          <t>7,02%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>5,69%</t>
+          <t>2,1%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>1,1%</t>
+          <t>1,01%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1116,22 +1117,22 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>11,98%</t>
+          <t>7,19%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>7,11%</t>
+          <t>4,08%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,93%</t>
+          <t>1,11%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,57%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,87; 22,28</t>
+          <t>2,58; 14,76</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,99; 14,8</t>
+          <t>2,55; 14,1</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,07</t>
+          <t>0,0; 6,99</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,94; 16,17</t>
+          <t>2,84; 13,34</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,2; 12,05</t>
+          <t>0,0; 7,38</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,96</t>
+          <t>0,0; 5,13</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 2,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>7,87; 17,19</t>
+          <t>3,84; 11,47</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>4,08; 11,34</t>
+          <t>1,74; 8,27</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,56</t>
+          <t>0,0; 3,38</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,06</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1216,12 +1217,12 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>8,1%</t>
+          <t>7,0%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>5,86%</t>
+          <t>3,96%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -1231,17 +1232,17 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,03%</t>
+          <t>1,47%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>9,79%</t>
+          <t>1,85%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>3,69%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1256,12 +1257,12 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>8,66%</t>
+          <t>4,8%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>5,17%</t>
+          <t>2,28%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
@@ -1271,7 +1272,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,65%</t>
+          <t>0,84%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,26; 15,12</t>
+          <t>2,74; 15,97</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,22; 12,99</t>
+          <t>1,23; 10,53</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 2,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,42</t>
+          <t>0,0; 7,27</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,38; 23,48</t>
+          <t>0,0; 9,23</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 17,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 4,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 3,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,73; 15,31</t>
+          <t>1,72; 10,37</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>2,0; 10,5</t>
+          <t>0,69; 6,28</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,46</t>
+          <t>0,0; 4,01</t>
         </is>
       </c>
     </row>
@@ -1356,27 +1357,27 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>4,52%</t>
+          <t>5,23%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>6,98%</t>
+          <t>4,67%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1,8%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>2,06%</t>
+          <t>2,58%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>7,94%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -1396,22 +1397,22 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>5,7%</t>
+          <t>2,39%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>4,94%</t>
+          <t>2,07%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>1,12%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>1,31%</t>
+          <t>1,16%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,22</t>
+          <t>0,0; 16,22</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2,23; 17,23</t>
+          <t>0,0; 14,38</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,23</t>
+          <t>0,0; 12,75</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 11,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 5,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 6,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>1,37; 13,0</t>
+          <t>0,0; 8,34</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>1,61; 13,4</t>
+          <t>0,0; 6,28</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,28</t>
+          <t>0,0; 6,05</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1497,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>13,46%</t>
+          <t>8,29%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>10,49%</t>
+          <t>6,23%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,5%</t>
+          <t>1,03%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>3,29%</t>
+          <t>2,07%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>10,82%</t>
+          <t>5,38%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>9,43%</t>
+          <t>4,73%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>1,52%</t>
+          <t>1,08%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>4,07%</t>
+          <t>1,78%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>12,27%</t>
+          <t>6,73%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>10,04%</t>
+          <t>5,42%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>2,08%</t>
+          <t>1,06%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>3,6%</t>
+          <t>1,92%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,69 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>10,17; 17,18</t>
+          <t>5,63; 11,77</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>7,81; 13,98</t>
+          <t>4,05; 9,66</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,11; 5,48</t>
+          <t>0,25; 3,01</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,71; 5,9</t>
+          <t>0,83; 4,51</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>8,2; 14,31</t>
+          <t>3,48; 7,97</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>6,48; 13,44</t>
+          <t>2,95; 7,38</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,57; 3,14</t>
+          <t>0,36; 2,81</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,94; 7,04</t>
+          <t>0,63; 3,73</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>9,88; 15,05</t>
+          <t>5,19; 9,04</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>7,93; 12,43</t>
+          <t>3,94; 7,31</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>1,1; 3,84</t>
+          <t>0,38; 2,0</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>2,32; 5,55</t>
+          <t>0,93; 3,41</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1639,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha consumido más alcohol respecto al último mes (tasa de respuesta: 99,97%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>9032</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>7098</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>3891</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>4577</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>4918</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>24878</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>2750</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>10129</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>13950</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>31976</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>6641</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>14706</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>2722; 23667</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 21528</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 17299</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 24288</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 17370</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>12368; 43281</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 13823</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>3023; 23588</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>5035; 30813</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>18760; 54460</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>0; 23191</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>4756; 32841</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>2518</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>5042</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>9198</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>11921</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>2297</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>11715</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>11921</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>2297</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>5042</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 13718</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>0; 19529</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>2353; 21148</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>3116; 27467</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0; 9958</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>4336; 25439</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>3026; 28977</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>0; 13185</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>0; 19402</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>24551</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>25118</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>1977</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>2572</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>17243</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>7583</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>2184</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>4547</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>41793</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>32701</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>4161</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>7119</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>13410; 40045</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>11702; 44949</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 13954</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0; 11446</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>8734; 30040</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>2240; 19531</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0; 11039</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0; 14246</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>26176; 64499</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>17924; 55979</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>0; 12591</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>2175; 19983</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>12063</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>11952</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>1978</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>13430</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>4583</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>1887</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>25493</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>16535</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>3865</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>4221; 24134</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>4766; 26318</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>0; 11263</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>5440; 25512</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>0; 16115</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>0; 9539</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>13627; 40704</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>7042; 33487</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>0; 11746</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>9720</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>6228</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>1811</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>1913</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>11633</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>6228</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>1811</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>3810; 22182</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>1935; 16573</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>0; 8956</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0; 9548</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>4163; 25139</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>1894; 17193</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>0; 8647</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>4718</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>5109</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>2326</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>4718</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>5109</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>2326</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 14632</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 15720</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>0; 11494</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>0; 16456</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>0; 15514</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>0; 12141</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>62602</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>55505</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>7846</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>16328</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>46701</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>48965</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>9118</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>14676</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>109302</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>104470</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>16964</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>31004</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>42519; 88874</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>36100; 86070</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>1939; 23022</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>6553; 35620</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>30235; 69209</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>30591; 76385</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>3059; 23651</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>5201; 30799</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>84259; 146817</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>75937; 140862</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>6165; 32097</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>15064; 54993</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>